--- a/Processed_Colors_Output.xlsx
+++ b/Processed_Colors_Output.xlsx
@@ -541,7 +541,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-02 18:32:20</t>
+          <t>2026-02-02 18:40:11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-02 18:32:20</t>
+          <t>2026-02-02 18:40:11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-02 18:32:20</t>
+          <t>2026-02-02 18:40:11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-02 18:32:20</t>
+          <t>2026-02-02 18:40:11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1174,7 +1174,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1265,7 +1265,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1718,7 +1718,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1991,7 +1991,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2171,7 +2171,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2180,21 +2180,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ANTR 2017-2A DRR</t>
+          <t>ARES</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>03665ABA4</t>
+          <t>04020VAA7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2203,41 +2203,41 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>101.725</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>101.40003</v>
+        <v>101.5707</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.30003</v>
+        <v>-1.5707</v>
       </c>
       <c r="R20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2254,13 +2254,13 @@
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2269,21 +2269,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ANTR 2017-2A DRR</t>
+          <t>ARES</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>03665ABA4</t>
+          <t>04020VAA7</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2292,41 +2292,41 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>101.725</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>101.35003</v>
+        <v>101.57039</v>
       </c>
       <c r="P21" t="n">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.25003</v>
+        <v>-1.57039</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I22" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="J22" t="n">
-        <v>101.75</v>
+        <v>101.725</v>
       </c>
       <c r="K22" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2411,17 +2411,17 @@
         <v>101.40003</v>
       </c>
       <c r="P22" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.27503</v>
+        <v>-0.30003</v>
       </c>
       <c r="R22" t="n">
         <v>9</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2430,19 +2430,17 @@
         </is>
       </c>
       <c r="U22" t="b">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.767878088528681e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2451,7 +2449,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2474,16 +2472,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I23" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="J23" t="n">
-        <v>101.75</v>
+        <v>101.725</v>
       </c>
       <c r="K23" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2502,17 +2500,17 @@
         <v>101.35003</v>
       </c>
       <c r="P23" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.22503</v>
+        <v>-0.25003</v>
       </c>
       <c r="R23" t="n">
         <v>9</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2533,7 +2531,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2542,7 +2540,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.767894779053551e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2565,16 +2563,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="I24" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="J24" t="n">
         <v>101.75</v>
       </c>
       <c r="K24" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2593,17 +2591,17 @@
         <v>101.40003</v>
       </c>
       <c r="P24" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.15003</v>
+        <v>-0.27503</v>
       </c>
       <c r="R24" t="n">
         <v>9</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2624,7 +2622,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2633,7 +2631,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.767894779053551e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,16 +2654,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="I25" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="J25" t="n">
         <v>101.75</v>
       </c>
       <c r="K25" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2684,17 +2682,17 @@
         <v>101.35003</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.10003</v>
+        <v>-0.22503</v>
       </c>
       <c r="R25" t="n">
         <v>9</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2715,7 +2713,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2724,7 +2722,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767894779053551e+16</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2747,16 +2745,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>101.25</v>
       </c>
       <c r="J26" t="n">
-        <v>101.1</v>
+        <v>101.75</v>
       </c>
       <c r="K26" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2765,20 +2763,20 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
         <v>101.40003</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.30003</v>
+        <v>-0.15003</v>
       </c>
       <c r="R26" t="n">
         <v>9</v>
@@ -2806,7 +2804,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2815,7 +2813,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767894779053551e+16</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2838,16 +2836,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>101.25</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1</v>
+        <v>101.75</v>
       </c>
       <c r="K27" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2856,20 +2854,20 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>101.35003</v>
       </c>
       <c r="P27" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.25003</v>
+        <v>-0.10003</v>
       </c>
       <c r="R27" t="n">
         <v>9</v>
@@ -2897,7 +2895,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2906,7 +2904,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,16 +2927,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="K28" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2957,17 +2955,17 @@
         <v>101.40003</v>
       </c>
       <c r="P28" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.27503</v>
+        <v>-0.30003</v>
       </c>
       <c r="R28" t="n">
         <v>9</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -2988,7 +2986,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2997,7 +2995,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,16 +3018,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="K29" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3048,17 +3046,17 @@
         <v>101.35003</v>
       </c>
       <c r="P29" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.22503</v>
+        <v>-0.25003</v>
       </c>
       <c r="R29" t="n">
         <v>9</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3079,7 +3077,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3088,21 +3086,21 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.767884114450251e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PLMRS 2021-4A ER</t>
+          <t>ANTR 2017-2A DRR</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>69702GAG5</t>
+          <t>03665ABA4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3111,20 +3109,20 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="K30" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BOA</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3136,20 +3134,20 @@
         <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>101.39531</v>
+        <v>101.40003</v>
       </c>
       <c r="P30" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.35469</v>
+        <v>-0.27503</v>
       </c>
       <c r="R30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3158,17 +3156,19 @@
         </is>
       </c>
       <c r="U30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.767878088528681e+16</v>
+      </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3177,21 +3177,21 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.767970711441301e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PLMRS 2021-4A ER</t>
+          <t>ANTR 2017-2A DRR</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>69702GAG5</t>
+          <t>03665ABA4</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3200,20 +3200,20 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="K31" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BOA</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3225,16 +3225,16 @@
         <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>101.39531</v>
+        <v>101.35003</v>
       </c>
       <c r="P31" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.35469</v>
+        <v>-0.22503</v>
       </c>
       <c r="R31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.767884114450251e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3259,7 +3259,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.767970711441301e+16</v>
+        <v>1.767884114450251e+16</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3316,20 +3316,20 @@
         <v>4</v>
       </c>
       <c r="O32" t="n">
-        <v>101.39507</v>
+        <v>101.39531</v>
       </c>
       <c r="P32" t="n">
         <v>0.35</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.35493</v>
+        <v>0.35469</v>
       </c>
       <c r="R32" t="n">
         <v>10</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3338,19 +3338,17 @@
         </is>
       </c>
       <c r="U32" t="b">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.767884114450251e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3359,7 +3357,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.767884114450251e+16</v>
+        <v>1.767970711441301e+16</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3407,20 +3405,20 @@
         <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>101.39507</v>
+        <v>101.39531</v>
       </c>
       <c r="P33" t="n">
         <v>0.35</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.35493</v>
+        <v>0.35469</v>
       </c>
       <c r="R33" t="n">
         <v>10</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3441,7 +3439,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3450,21 +3448,21 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767970711441301e+16</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GOCAP 2023-65A DR</t>
+          <t>PLMRS 2021-4A ER</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>38180YAJ6</t>
+          <t>69702GAG5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3473,45 +3471,45 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="I34" t="n">
-        <v>101.075</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.7</v>
+        <v>101.75</v>
       </c>
       <c r="K34" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>101.37504</v>
+        <v>101.39507</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.30004</v>
+        <v>0.35493</v>
       </c>
       <c r="R34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3520,17 +3518,19 @@
         </is>
       </c>
       <c r="U34" t="b">
-        <v>1</v>
-      </c>
-      <c r="V34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.767884114450251e+16</v>
+      </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3539,21 +3539,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767884114450251e+16</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GOCAP 2023-65A DR</t>
+          <t>PLMRS 2021-4A ER</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>38180YAJ6</t>
+          <t>69702GAG5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3562,41 +3562,41 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="I35" t="n">
-        <v>101.075</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>101.7</v>
+        <v>101.75</v>
       </c>
       <c r="K35" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>101.32503</v>
+        <v>101.39507</v>
       </c>
       <c r="P35" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.25003</v>
+        <v>0.35493</v>
       </c>
       <c r="R35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767884114450251e+16</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3621,7 +3621,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3653,16 +3653,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I36" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="J36" t="n">
-        <v>101.75</v>
+        <v>101.7</v>
       </c>
       <c r="K36" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3681,17 +3681,17 @@
         <v>101.37504</v>
       </c>
       <c r="P36" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.25004</v>
+        <v>-0.30004</v>
       </c>
       <c r="R36" t="n">
         <v>9</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3700,19 +3700,17 @@
         </is>
       </c>
       <c r="U36" t="b">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.767878088528681e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3721,7 +3719,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3744,16 +3742,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I37" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="J37" t="n">
-        <v>101.75</v>
+        <v>101.7</v>
       </c>
       <c r="K37" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3772,17 +3770,17 @@
         <v>101.32503</v>
       </c>
       <c r="P37" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.20003</v>
+        <v>-0.25003</v>
       </c>
       <c r="R37" t="n">
         <v>9</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -3803,7 +3801,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3812,7 +3810,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3835,16 +3833,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>101.125</v>
       </c>
       <c r="J38" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="K38" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3853,27 +3851,27 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
         <v>101.37504</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.30004</v>
+        <v>-0.25004</v>
       </c>
       <c r="R38" t="n">
         <v>9</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -3894,7 +3892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3903,7 +3901,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3926,16 +3924,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>101.125</v>
       </c>
       <c r="J39" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="K39" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3944,27 +3942,27 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
         <v>101.32503</v>
       </c>
       <c r="P39" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.25003</v>
+        <v>-0.20003</v>
       </c>
       <c r="R39" t="n">
         <v>9</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -3985,7 +3983,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3994,7 +3992,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4017,16 +4015,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="K40" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -4045,17 +4043,17 @@
         <v>101.37504</v>
       </c>
       <c r="P40" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.25004</v>
+        <v>-0.30004</v>
       </c>
       <c r="R40" t="n">
         <v>9</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4076,7 +4074,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4085,7 +4083,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4108,16 +4106,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="K41" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -4136,17 +4134,17 @@
         <v>101.32503</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.20003</v>
+        <v>-0.25003</v>
       </c>
       <c r="R41" t="n">
         <v>9</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4167,7 +4165,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4176,11 +4174,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MCFCL 2018-1A ER</t>
+          <t>GOCAP 2023-65A DR</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4190,7 +4188,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>55281QAG1</t>
+          <t>38180YAJ6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4199,16 +4197,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>100.875</v>
+        <v>101.125</v>
       </c>
       <c r="I42" t="n">
-        <v>100.875</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="K42" t="n">
-        <v>100.875</v>
+        <v>101.125</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -4217,27 +4215,27 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>101.375</v>
+        <v>101.37504</v>
       </c>
       <c r="P42" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.5</v>
+        <v>-0.25004</v>
       </c>
       <c r="R42" t="n">
         <v>9</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4246,17 +4244,19 @@
         </is>
       </c>
       <c r="U42" t="b">
-        <v>1</v>
-      </c>
-      <c r="V42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.767878088528681e+16</v>
+      </c>
       <c r="W42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MCFCL 2018-1A ER</t>
+          <t>GOCAP 2023-65A DR</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>55281QAG1</t>
+          <t>38180YAJ6</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4288,16 +4288,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>100.875</v>
+        <v>101.125</v>
       </c>
       <c r="I43" t="n">
-        <v>100.875</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="K43" t="n">
-        <v>100.875</v>
+        <v>101.125</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4306,20 +4306,20 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" t="n">
-        <v>101.375</v>
+        <v>101.32503</v>
       </c>
       <c r="P43" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.5</v>
+        <v>-0.20003</v>
       </c>
       <c r="R43" t="n">
         <v>9</v>
@@ -4347,7 +4347,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4356,11 +4356,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MCFCL 2018-1A ER</t>
+          <t>GOCAP 2023-65A DR</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>55281QAG1</t>
+          <t>38180YAJ6</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4379,41 +4379,41 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>100.875</v>
+        <v>100</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>100.875</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>100.875</v>
+        <v>100</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O44" t="n">
-        <v>101.375</v>
+        <v>101.37504</v>
       </c>
       <c r="P44" t="n">
-        <v>0.49</v>
+        <v>1.36</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.5</v>
+        <v>-1.37504</v>
       </c>
       <c r="R44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4447,11 +4447,11 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MCFCL 2018-1A ER</t>
+          <t>GOCAP 2023-65A DR</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>55281QAG1</t>
+          <t>38180YAJ6</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4470,45 +4470,45 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>100.875</v>
+        <v>100</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" t="n">
-        <v>100.875</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>100.875</v>
+        <v>100</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O45" t="n">
-        <v>101.375</v>
+        <v>101.32503</v>
       </c>
       <c r="P45" t="n">
-        <v>0.49</v>
+        <v>1.31</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.5</v>
+        <v>-1.32503</v>
       </c>
       <c r="R45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4529,7 +4529,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4538,21 +4538,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.767878376724611e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BRYPK 2024-25A E</t>
+          <t>MCFCL 2018-1A ER</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>117914AA9</t>
+          <t>55281QAG1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4561,41 +4561,41 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>100.5</v>
+        <v>100.875</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>100.875</v>
       </c>
       <c r="J46" t="n">
-        <v>100.5</v>
+        <v>101.75</v>
       </c>
       <c r="K46" t="n">
-        <v>100.5</v>
+        <v>100.875</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BARCAP</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>BWIC TALK</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>101.35931</v>
+        <v>101.375</v>
       </c>
       <c r="P46" t="n">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="Q46" t="n">
-        <v>-0.85931</v>
+        <v>-0.5</v>
       </c>
       <c r="R46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4627,21 +4627,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.767878376724611e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>BRYPK 2024-25A E</t>
+          <t>MCFCL 2018-1A ER</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>117914AA9</t>
+          <t>55281QAG1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4650,45 +4650,45 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>100.5</v>
+        <v>100.875</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>100.875</v>
       </c>
       <c r="J47" t="n">
-        <v>100.5</v>
+        <v>101.75</v>
       </c>
       <c r="K47" t="n">
-        <v>100.5</v>
+        <v>100.875</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BARCAP</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>BWIC TALK</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>101.35916</v>
+        <v>101.375</v>
       </c>
       <c r="P47" t="n">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.85916</v>
+        <v>-0.5</v>
       </c>
       <c r="R47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>1.767878376724611e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4709,7 +4709,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4718,21 +4718,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.767831027090011e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>BRYPK 2024-25A E</t>
+          <t>MCFCL 2018-1A ER</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>117914AA9</t>
+          <t>55281QAG1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4741,41 +4741,41 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>101.105</v>
+        <v>100.875</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>101.105</v>
+        <v>100.875</v>
       </c>
       <c r="K48" t="n">
-        <v>101.105</v>
+        <v>100.875</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>CITI</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>BWIC TALK</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O48" t="n">
-        <v>101.35931</v>
+        <v>101.375</v>
       </c>
       <c r="P48" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.25431</v>
+        <v>-0.5</v>
       </c>
       <c r="R48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>1.767878376724611e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4800,7 +4800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4809,21 +4809,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.767831027090011e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BRYPK 2024-25A E</t>
+          <t>MCFCL 2018-1A ER</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>117914AA9</t>
+          <t>55281QAG1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4832,45 +4832,45 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>101.105</v>
+        <v>100.875</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>101.105</v>
+        <v>100.875</v>
       </c>
       <c r="K49" t="n">
-        <v>101.105</v>
+        <v>100.875</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>CITI</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>BWIC TALK</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O49" t="n">
-        <v>101.35916</v>
+        <v>101.375</v>
       </c>
       <c r="P49" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.25416</v>
+        <v>-0.5</v>
       </c>
       <c r="R49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>1.767878376724611e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4900,11 +4900,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.767917159908582e+16</v>
+        <v>1.767878376724611e+16</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FCBSL 2025-1A D1</t>
+          <t>BRYPK 2024-25A E</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>34990BAG1</t>
+          <t>117914AA9</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4923,45 +4923,45 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>100.5306</v>
+        <v>100.5</v>
       </c>
       <c r="I50" t="n">
-        <v>100.5306</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="K50" t="n">
-        <v>100.5306</v>
+        <v>100.5</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BOA</t>
+          <t>BARCAP</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>BWIC TALK</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O50" t="n">
-        <v>101.27887</v>
+        <v>101.35931</v>
       </c>
       <c r="P50" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.74827</v>
+        <v>-0.85931</v>
       </c>
       <c r="R50" t="n">
         <v>10</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -4974,13 +4974,13 @@
       </c>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-02-02 18:40:11</t>
+          <t>2026-02-02 20:36:42</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4989,11 +4989,11 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.767830681731781e+16</v>
+        <v>1.767878376724611e+16</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FCBSL 2025-1A D1</t>
+          <t>BRYPK 2024-25A E</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>34990BAG1</t>
+          <t>117914AA9</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5012,38 +5012,38 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>100.5306</v>
+        <v>100.5</v>
       </c>
       <c r="I51" t="n">
-        <v>100.5306</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="K51" t="n">
-        <v>100.5306</v>
+        <v>100.5</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BOA</t>
+          <t>BARCAP</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>BWIC TALK</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O51" t="n">
-        <v>101.27887</v>
+        <v>101.35916</v>
       </c>
       <c r="P51" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.74827</v>
+        <v>-0.85916</v>
       </c>
       <c r="R51" t="n">
         <v>10</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>1.767917159908582e+16</v>
+        <v>1.767878376724611e+16</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -5080,21 +5080,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767831027090011e+16</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>WDMNT 2022-9A ER</t>
+          <t>BRYPK 2024-25A E</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>97988RBL5</t>
+          <t>117914AA9</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5103,45 +5103,45 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>101.7</v>
+        <v>101.105</v>
       </c>
       <c r="I52" t="n">
-        <v>101.7</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>102.575</v>
+        <v>101.105</v>
       </c>
       <c r="K52" t="n">
-        <v>101.7</v>
+        <v>101.105</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>CITI</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>BWIC TALK</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O52" t="n">
-        <v>102.2</v>
+        <v>101.35931</v>
       </c>
       <c r="P52" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.5</v>
+        <v>-0.25431</v>
       </c>
       <c r="R52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -5150,11 +5150,13 @@
         </is>
       </c>
       <c r="U52" t="b">
-        <v>1</v>
-      </c>
-      <c r="V52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.767878376724611e+16</v>
+      </c>
       <c r="W52" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5169,21 +5171,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767831027090011e+16</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>WDMNT 2022-9A ER</t>
+          <t>BRYPK 2024-25A E</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>97988RBL5</t>
+          <t>117914AA9</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -5192,41 +5194,41 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>101.7</v>
+        <v>101.105</v>
       </c>
       <c r="I53" t="n">
-        <v>101.7</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>102.575</v>
+        <v>101.105</v>
       </c>
       <c r="K53" t="n">
-        <v>101.7</v>
+        <v>101.105</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>CITI</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>BWIC TALK</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O53" t="n">
-        <v>102.2</v>
+        <v>101.35916</v>
       </c>
       <c r="P53" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.5</v>
+        <v>-0.25416</v>
       </c>
       <c r="R53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5242,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878376724611e+16</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5260,21 +5262,21 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767917159908582e+16</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WDMNT 2022-9A ER</t>
+          <t>FCBSL 2025-1A D1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>97988RBL5</t>
+          <t>34990BAG1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5283,45 +5285,45 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>101.7</v>
+        <v>100.5306</v>
       </c>
       <c r="I54" t="n">
-        <v>101.7</v>
+        <v>100.5306</v>
       </c>
       <c r="J54" t="n">
-        <v>102.575</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>101.7</v>
+        <v>100.5306</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>102.125</v>
+        <v>101.27887</v>
       </c>
       <c r="P54" t="n">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.425</v>
+        <v>-0.74827</v>
       </c>
       <c r="R54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -5330,13 +5332,11 @@
         </is>
       </c>
       <c r="U54" t="b">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.767963359102971e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -5351,21 +5351,21 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767830681731781e+16</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>WDMNT 2022-9A ER</t>
+          <t>FCBSL 2025-1A D1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>97988RBL5</t>
+          <t>34990BAG1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5374,45 +5374,45 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>101.7</v>
+        <v>100.5306</v>
       </c>
       <c r="I55" t="n">
-        <v>101.7</v>
+        <v>100.5306</v>
       </c>
       <c r="J55" t="n">
-        <v>102.575</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>101.7</v>
+        <v>100.5306</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O55" t="n">
-        <v>102.125</v>
+        <v>101.27887</v>
       </c>
       <c r="P55" t="n">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.425</v>
+        <v>-0.74827</v>
       </c>
       <c r="R55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767917159908582e+16</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5468,10 +5468,10 @@
         <v>101.7</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>101.7</v>
       </c>
       <c r="J56" t="n">
-        <v>101.7</v>
+        <v>102.575</v>
       </c>
       <c r="K56" t="n">
         <v>101.7</v>
@@ -5483,11 +5483,11 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
         <v>102.2</v>
@@ -5512,13 +5512,11 @@
         </is>
       </c>
       <c r="U56" t="b">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.767963359102971e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -5529,7 +5527,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -5559,10 +5557,10 @@
         <v>101.7</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>101.7</v>
       </c>
       <c r="J57" t="n">
-        <v>101.7</v>
+        <v>102.575</v>
       </c>
       <c r="K57" t="n">
         <v>101.7</v>
@@ -5574,11 +5572,11 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
         <v>102.2</v>
@@ -5620,7 +5618,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -5650,10 +5648,10 @@
         <v>101.7</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>101.7</v>
       </c>
       <c r="J58" t="n">
-        <v>101.7</v>
+        <v>102.575</v>
       </c>
       <c r="K58" t="n">
         <v>101.7</v>
@@ -5665,11 +5663,11 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O58" t="n">
         <v>102.125</v>
@@ -5711,7 +5709,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -5741,10 +5739,10 @@
         <v>101.7</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>101.7</v>
       </c>
       <c r="J59" t="n">
-        <v>101.7</v>
+        <v>102.575</v>
       </c>
       <c r="K59" t="n">
         <v>101.7</v>
@@ -5756,11 +5754,11 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O59" t="n">
         <v>102.125</v>
@@ -5802,15 +5800,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ABPCI 2017-1A ERR</t>
+          <t>WDMNT 2022-9A ER</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5820,7 +5818,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>000840AG3</t>
+          <t>97988RBL5</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5829,16 +5827,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="I60" t="n">
-        <v>101.375</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>102.25</v>
+        <v>101.7</v>
       </c>
       <c r="K60" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -5847,14 +5845,14 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O60" t="n">
-        <v>101.875</v>
+        <v>102.2</v>
       </c>
       <c r="P60" t="n">
         <v>0.49</v>
@@ -5867,7 +5865,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -5876,11 +5874,13 @@
         </is>
       </c>
       <c r="U60" t="b">
-        <v>1</v>
-      </c>
-      <c r="V60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.767963359102971e+16</v>
+      </c>
       <c r="W60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ABPCI 2017-1A ERR</t>
+          <t>WDMNT 2022-9A ER</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>000840AG3</t>
+          <t>97988RBL5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5918,16 +5918,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="I61" t="n">
-        <v>101.375</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>102.25</v>
+        <v>101.7</v>
       </c>
       <c r="K61" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5936,20 +5936,20 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O61" t="n">
-        <v>101.775</v>
+        <v>102.2</v>
       </c>
       <c r="P61" t="n">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="Q61" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="R61" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ABPCI 2017-1A ERR</t>
+          <t>WDMNT 2022-9A ER</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>000840AG3</t>
+          <t>97988RBL5</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -6009,16 +6009,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="K62" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -6034,13 +6034,13 @@
         <v>4</v>
       </c>
       <c r="O62" t="n">
-        <v>101.875</v>
+        <v>102.125</v>
       </c>
       <c r="P62" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.5</v>
+        <v>-0.425</v>
       </c>
       <c r="R62" t="n">
         <v>9</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -6073,15 +6073,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ABPCI 2017-1A ERR</t>
+          <t>WDMNT 2022-9A ER</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>000840AG3</t>
+          <t>97988RBL5</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -6100,16 +6100,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="K63" t="n">
-        <v>101.375</v>
+        <v>101.7</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -6125,20 +6125,20 @@
         <v>4</v>
       </c>
       <c r="O63" t="n">
-        <v>101.775</v>
+        <v>102.125</v>
       </c>
       <c r="P63" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="Q63" t="n">
-        <v>-0.4</v>
+        <v>-0.425</v>
       </c>
       <c r="R63" t="n">
         <v>9</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -6164,25 +6164,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>WELLI 2024-2A D</t>
+          <t>ABPCI 2017-1A ERR</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>94958LAG3</t>
+          <t>000840AG3</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6191,41 +6191,41 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>100.31</v>
+        <v>101.375</v>
       </c>
       <c r="I64" t="n">
-        <v>100.31</v>
+        <v>101.375</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>102.25</v>
       </c>
       <c r="K64" t="n">
-        <v>100.31</v>
+        <v>101.375</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O64" t="n">
-        <v>101.6552</v>
+        <v>101.875</v>
       </c>
       <c r="P64" t="n">
-        <v>1.32</v>
+        <v>0.49</v>
       </c>
       <c r="Q64" t="n">
-        <v>-1.3452</v>
+        <v>-0.5</v>
       </c>
       <c r="R64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -6253,25 +6253,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WELLI 2024-2A D</t>
+          <t>ABPCI 2017-1A ERR</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>94958LAG3</t>
+          <t>000840AG3</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -6280,41 +6280,41 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>100.31</v>
+        <v>101.375</v>
       </c>
       <c r="I65" t="n">
-        <v>100.31</v>
+        <v>101.375</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>102.25</v>
       </c>
       <c r="K65" t="n">
-        <v>100.31</v>
+        <v>101.375</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O65" t="n">
-        <v>101.65502</v>
+        <v>101.775</v>
       </c>
       <c r="P65" t="n">
-        <v>1.32</v>
+        <v>0.39</v>
       </c>
       <c r="Q65" t="n">
-        <v>-1.34502</v>
+        <v>-0.4</v>
       </c>
       <c r="R65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6344,25 +6344,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>ABPCI 2017-1A ERR</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>04020VAA7</t>
+          <t>000840AG3</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6371,41 +6371,41 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
+        <v>101.375</v>
       </c>
       <c r="I66" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>101.375</v>
       </c>
       <c r="K66" t="n">
-        <v>100</v>
+        <v>101.375</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O66" t="n">
-        <v>101.5707</v>
+        <v>101.875</v>
       </c>
       <c r="P66" t="n">
-        <v>1.55</v>
+        <v>0.49</v>
       </c>
       <c r="Q66" t="n">
-        <v>-1.5707</v>
+        <v>-0.5</v>
       </c>
       <c r="R66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6418,11 +6418,13 @@
         </is>
       </c>
       <c r="U66" t="b">
-        <v>1</v>
-      </c>
-      <c r="V66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.767878088528681e+16</v>
+      </c>
       <c r="W66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6433,25 +6435,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ARES</t>
+          <t>ABPCI 2017-1A ERR</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>04020VAA7</t>
+          <t>000840AG3</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6460,41 +6462,41 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>100</v>
+        <v>101.375</v>
       </c>
       <c r="I67" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>101.375</v>
       </c>
       <c r="K67" t="n">
-        <v>100</v>
+        <v>101.375</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O67" t="n">
-        <v>101.57039</v>
+        <v>101.775</v>
       </c>
       <c r="P67" t="n">
-        <v>1.55</v>
+        <v>0.39</v>
       </c>
       <c r="Q67" t="n">
-        <v>-1.57039</v>
+        <v>-0.4</v>
       </c>
       <c r="R67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6510,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
@@ -6524,25 +6526,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ANTR 2017-2A DRR</t>
+          <t>WELLI 2024-2A D</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>03665ABA4</t>
+          <t>94958LAG3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6551,41 +6553,41 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>101.1</v>
+        <v>100.31</v>
       </c>
       <c r="I68" t="n">
-        <v>101.1</v>
+        <v>100.31</v>
       </c>
       <c r="J68" t="n">
-        <v>101.725</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>101.1</v>
+        <v>100.31</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O68" t="n">
-        <v>101.40003</v>
+        <v>101.6552</v>
       </c>
       <c r="P68" t="n">
-        <v>0.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q68" t="n">
-        <v>-0.30003</v>
+        <v>-1.3452</v>
       </c>
       <c r="R68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6602,7 +6604,7 @@
       </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -6613,25 +6615,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ANTR 2017-2A DRR</t>
+          <t>WELLI 2024-2A D</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>03665ABA4</t>
+          <t>94958LAG3</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6640,41 +6642,41 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>101.1</v>
+        <v>100.31</v>
       </c>
       <c r="I69" t="n">
-        <v>101.1</v>
+        <v>100.31</v>
       </c>
       <c r="J69" t="n">
-        <v>101.725</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>101.1</v>
+        <v>100.31</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>VALUATION</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O69" t="n">
-        <v>101.35003</v>
+        <v>101.65502</v>
       </c>
       <c r="P69" t="n">
-        <v>0.25</v>
+        <v>1.32</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.25003</v>
+        <v>-1.34502</v>
       </c>
       <c r="R69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6690,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767878667077891e+16</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -6704,11 +6706,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6731,16 +6733,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I70" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="J70" t="n">
-        <v>101.75</v>
+        <v>101.725</v>
       </c>
       <c r="K70" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -6759,17 +6761,17 @@
         <v>101.40003</v>
       </c>
       <c r="P70" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.27503</v>
+        <v>-0.30003</v>
       </c>
       <c r="R70" t="n">
         <v>9</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -6778,13 +6780,11 @@
         </is>
       </c>
       <c r="U70" t="b">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.767878088528681e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -6795,11 +6795,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6822,16 +6822,16 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I71" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="J71" t="n">
-        <v>101.75</v>
+        <v>101.725</v>
       </c>
       <c r="K71" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -6850,17 +6850,17 @@
         <v>101.35003</v>
       </c>
       <c r="P71" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.22503</v>
+        <v>-0.25003</v>
       </c>
       <c r="R71" t="n">
         <v>9</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -6886,11 +6886,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.767894779053551e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="I72" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="J72" t="n">
         <v>101.75</v>
       </c>
       <c r="K72" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -6941,17 +6941,17 @@
         <v>101.40003</v>
       </c>
       <c r="P72" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="Q72" t="n">
-        <v>-0.15003</v>
+        <v>-0.27503</v>
       </c>
       <c r="R72" t="n">
         <v>9</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -6977,11 +6977,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.767894779053551e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="I73" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="J73" t="n">
         <v>101.75</v>
       </c>
       <c r="K73" t="n">
-        <v>101.25</v>
+        <v>101.125</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -7032,17 +7032,17 @@
         <v>101.35003</v>
       </c>
       <c r="P73" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="Q73" t="n">
-        <v>-0.10003</v>
+        <v>-0.22503</v>
       </c>
       <c r="R73" t="n">
         <v>9</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -7068,11 +7068,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767894779053551e+16</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7095,16 +7095,16 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>101.25</v>
       </c>
       <c r="J74" t="n">
-        <v>101.1</v>
+        <v>101.75</v>
       </c>
       <c r="K74" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -7113,20 +7113,20 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O74" t="n">
         <v>101.40003</v>
       </c>
       <c r="P74" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.30003</v>
+        <v>-0.15003</v>
       </c>
       <c r="R74" t="n">
         <v>9</v>
@@ -7159,11 +7159,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767894779053551e+16</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7186,16 +7186,16 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>101.25</v>
       </c>
       <c r="J75" t="n">
-        <v>101.1</v>
+        <v>101.75</v>
       </c>
       <c r="K75" t="n">
-        <v>101.1</v>
+        <v>101.25</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -7204,20 +7204,20 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O75" t="n">
         <v>101.35003</v>
       </c>
       <c r="P75" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.25003</v>
+        <v>-0.10003</v>
       </c>
       <c r="R75" t="n">
         <v>9</v>
@@ -7250,11 +7250,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7277,16 +7277,16 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="K76" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -7305,17 +7305,17 @@
         <v>101.40003</v>
       </c>
       <c r="P76" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.27503</v>
+        <v>-0.30003</v>
       </c>
       <c r="R76" t="n">
         <v>9</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -7341,11 +7341,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7368,16 +7368,16 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="K77" t="n">
-        <v>101.125</v>
+        <v>101.1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -7396,17 +7396,17 @@
         <v>101.35003</v>
       </c>
       <c r="P77" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.22503</v>
+        <v>-0.25003</v>
       </c>
       <c r="R77" t="n">
         <v>9</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -7432,25 +7432,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.767884114450251e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PLMRS 2021-4A ER</t>
+          <t>ANTR 2017-2A DRR</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>69702GAG5</t>
+          <t>03665ABA4</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -7459,20 +7459,20 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="K78" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BOA</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -7484,20 +7484,20 @@
         <v>4</v>
       </c>
       <c r="O78" t="n">
-        <v>101.39531</v>
+        <v>101.40003</v>
       </c>
       <c r="P78" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.35469</v>
+        <v>-0.27503</v>
       </c>
       <c r="R78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -7506,11 +7506,13 @@
         </is>
       </c>
       <c r="U78" t="b">
-        <v>1</v>
-      </c>
-      <c r="V78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.767878088528681e+16</v>
+      </c>
       <c r="W78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -7521,25 +7523,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.767970711441301e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PLMRS 2021-4A ER</t>
+          <t>ANTR 2017-2A DRR</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.0_Mezz</t>
+          <t>MM-CLO</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>69702GAG5</t>
+          <t>03665ABA4</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -7548,20 +7550,20 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="K79" t="n">
-        <v>101.75</v>
+        <v>101.125</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BOA</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -7573,16 +7575,16 @@
         <v>4</v>
       </c>
       <c r="O79" t="n">
-        <v>101.39531</v>
+        <v>101.35003</v>
       </c>
       <c r="P79" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.35469</v>
+        <v>-0.22503</v>
       </c>
       <c r="R79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7598,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>1.767884114450251e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -7612,11 +7614,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.767970711441301e+16</v>
+        <v>1.767884114450251e+16</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7664,20 +7666,20 @@
         <v>4</v>
       </c>
       <c r="O80" t="n">
-        <v>101.39507</v>
+        <v>101.39531</v>
       </c>
       <c r="P80" t="n">
         <v>0.35</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.35493</v>
+        <v>0.35469</v>
       </c>
       <c r="R80" t="n">
         <v>10</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -7686,13 +7688,11 @@
         </is>
       </c>
       <c r="U80" t="b">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>1.767884114450251e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V80" t="inlineStr"/>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -7703,11 +7703,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.767884114450251e+16</v>
+        <v>1.767970711441301e+16</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7755,20 +7755,20 @@
         <v>4</v>
       </c>
       <c r="O81" t="n">
-        <v>101.39507</v>
+        <v>101.39531</v>
       </c>
       <c r="P81" t="n">
         <v>0.35</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.35493</v>
+        <v>0.35469</v>
       </c>
       <c r="R81" t="n">
         <v>10</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -7794,25 +7794,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767970711441301e+16</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GOCAP 2023-65A DR</t>
+          <t>PLMRS 2021-4A ER</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>38180YAJ6</t>
+          <t>69702GAG5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7821,45 +7821,45 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="I82" t="n">
-        <v>101.075</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>101.7</v>
+        <v>101.75</v>
       </c>
       <c r="K82" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O82" t="n">
-        <v>101.37504</v>
+        <v>101.39507</v>
       </c>
       <c r="P82" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="Q82" t="n">
-        <v>-0.30004</v>
+        <v>0.35493</v>
       </c>
       <c r="R82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -7868,11 +7868,13 @@
         </is>
       </c>
       <c r="U82" t="b">
-        <v>1</v>
-      </c>
-      <c r="V82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1.767884114450251e+16</v>
+      </c>
       <c r="W82" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7883,25 +7885,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767884114450251e+16</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>GOCAP 2023-65A DR</t>
+          <t>PLMRS 2021-4A ER</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MM-CLO</t>
+          <t>2.0_Mezz</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>38180YAJ6</t>
+          <t>69702GAG5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7910,41 +7912,41 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="I83" t="n">
-        <v>101.075</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>101.7</v>
+        <v>101.75</v>
       </c>
       <c r="K83" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>BOA</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O83" t="n">
-        <v>101.32503</v>
+        <v>101.39507</v>
       </c>
       <c r="P83" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.25003</v>
+        <v>0.35493</v>
       </c>
       <c r="R83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -7960,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767884114450251e+16</v>
       </c>
       <c r="W83" t="n">
         <v>0</v>
@@ -7974,11 +7976,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8001,16 +8003,16 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I84" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="J84" t="n">
-        <v>101.75</v>
+        <v>101.7</v>
       </c>
       <c r="K84" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -8029,17 +8031,17 @@
         <v>101.37504</v>
       </c>
       <c r="P84" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q84" t="n">
-        <v>-0.25004</v>
+        <v>-0.30004</v>
       </c>
       <c r="R84" t="n">
         <v>9</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -8048,13 +8050,11 @@
         </is>
       </c>
       <c r="U84" t="b">
-        <v>0</v>
-      </c>
-      <c r="V84" t="n">
-        <v>1.767878088528681e+16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -8065,11 +8065,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I85" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="J85" t="n">
-        <v>101.75</v>
+        <v>101.7</v>
       </c>
       <c r="K85" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -8120,17 +8120,17 @@
         <v>101.32503</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>-0.20003</v>
+        <v>-0.25003</v>
       </c>
       <c r="R85" t="n">
         <v>9</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -8156,11 +8156,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8183,16 +8183,16 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>101.125</v>
       </c>
       <c r="J86" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="K86" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -8201,27 +8201,27 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O86" t="n">
         <v>101.37504</v>
       </c>
       <c r="P86" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.30004</v>
+        <v>-0.25004</v>
       </c>
       <c r="R86" t="n">
         <v>9</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -8247,11 +8247,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.767878088528681e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8274,16 +8274,16 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>101.125</v>
       </c>
       <c r="J87" t="n">
-        <v>101.075</v>
+        <v>101.75</v>
       </c>
       <c r="K87" t="n">
-        <v>101.075</v>
+        <v>101.125</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -8292,27 +8292,27 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>OFFER</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O87" t="n">
         <v>101.32503</v>
       </c>
       <c r="P87" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.25003</v>
+        <v>-0.20003</v>
       </c>
       <c r="R87" t="n">
         <v>9</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -8338,11 +8338,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8365,16 +8365,16 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="K88" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -8393,17 +8393,17 @@
         <v>101.37504</v>
       </c>
       <c r="P88" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q88" t="n">
-        <v>-0.25004</v>
+        <v>-0.30004</v>
       </c>
       <c r="R88" t="n">
         <v>9</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -8429,11 +8429,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.767963359102971e+16</v>
+        <v>1.767878088528681e+16</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8456,16 +8456,16 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="K89" t="n">
-        <v>101.125</v>
+        <v>101.075</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -8484,17 +8484,17 @@
         <v>101.32503</v>
       </c>
       <c r="P89" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q89" t="n">
-        <v>-0.20003</v>
+        <v>-0.25003</v>
       </c>
       <c r="R89" t="n">
         <v>9</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -8520,11 +8520,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8547,45 +8547,45 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>100</v>
+        <v>101.125</v>
       </c>
       <c r="I90" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>101.125</v>
       </c>
       <c r="K90" t="n">
-        <v>100</v>
+        <v>101.125</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O90" t="n">
         <v>101.37504</v>
       </c>
       <c r="P90" t="n">
-        <v>1.36</v>
+        <v>0.25</v>
       </c>
       <c r="Q90" t="n">
-        <v>-1.37504</v>
+        <v>-0.25004</v>
       </c>
       <c r="R90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -8611,11 +8611,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.767878667077891e+16</v>
+        <v>1.767963359102971e+16</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8638,45 +8638,45 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>100</v>
+        <v>101.125</v>
       </c>
       <c r="I91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>101.125</v>
       </c>
       <c r="K91" t="n">
-        <v>100</v>
+        <v>101.125</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>VALUATION</t>
+          <t>OFFER</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O91" t="n">
         <v>101.32503</v>
       </c>
       <c r="P91" t="n">
-        <v>1.31</v>
+        <v>0.2</v>
       </c>
       <c r="Q91" t="n">
-        <v>-1.32503</v>
+        <v>-0.20003</v>
       </c>
       <c r="R91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>AUTOMATED</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -9601,7 +9601,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -9690,7 +9690,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -9781,7 +9781,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -9872,7 +9872,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -9963,7 +9963,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10054,7 +10054,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -10145,7 +10145,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -10236,7 +10236,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -10327,7 +10327,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -10416,7 +10416,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -10507,7 +10507,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -10598,7 +10598,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -10689,7 +10689,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -10778,7 +10778,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -10869,7 +10869,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -10958,7 +10958,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -11049,7 +11049,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -11140,7 +11140,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -11231,7 +11231,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -11322,7 +11322,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -11413,7 +11413,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -11504,7 +11504,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -11595,7 +11595,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -11686,7 +11686,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -11777,7 +11777,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -11866,7 +11866,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -11957,7 +11957,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -12048,7 +12048,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -12139,7 +12139,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -12228,7 +12228,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -12319,7 +12319,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -12410,7 +12410,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -12501,7 +12501,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -12592,7 +12592,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -12683,7 +12683,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -12774,7 +12774,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -12865,7 +12865,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -12954,7 +12954,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -13045,7 +13045,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -13136,7 +13136,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -13227,7 +13227,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -13316,7 +13316,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -13407,7 +13407,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -13498,7 +13498,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -13589,7 +13589,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -13678,7 +13678,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2026-02-02 20:36:42</t>
+          <t>2026-02-02 21:57:35</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
